--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499113.9105203619</v>
+        <v>406808.4439759392</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14803319.36208673</v>
+        <v>14793534.46552419</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6041269.909777044</v>
+        <v>6050988.346027243</v>
       </c>
     </row>
     <row r="11">
@@ -664,70 +664,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>1.848256208035304</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="E2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.848256208035306</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="Y2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="W3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="T5" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="W5" t="n">
-        <v>57.96571614961795</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,70 +980,70 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="U6" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="E6" t="n">
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>14.3427387906227</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>67.27654854321852</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>64.54245901085132</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U9" t="n">
-        <v>98.74883103803275</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>89.49227226221136</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>12.6322433998529</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1510766325138</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>253.207251717984</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5255871663199</v>
+        <v>253.207251717984</v>
       </c>
       <c r="X11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.8405921356975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.426220921263233</v>
+        <v>4.464399262592227</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663199</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>112.1537208505822</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>143.1239605983204</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>253.207251717984</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.5255871663199</v>
+        <v>253.207251717984</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>116.7083663906776</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>62.80363837989029</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>153.596233662296</v>
       </c>
       <c r="T14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>165.1725371760945</v>
+        <v>190.0643128708069</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663199</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>112.1537208505822</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>315.128434197946</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>253.207251717984</v>
       </c>
       <c r="G17" t="n">
-        <v>277.5651248415508</v>
+        <v>253.207251717984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.207251717984</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.57606831438252</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>315.128434197946</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>315.128434197946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>123.6336739338722</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9275207107687</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.7698705628536</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.76351369743597</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.3816580508041</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>235.9863108282491</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>123.9159858479446</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>59.20837644037374</v>
+        <v>112.1537208505822</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>253.2072517179839</v>
       </c>
       <c r="E20" t="n">
-        <v>315.128434197946</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>315.128434197946</v>
+        <v>160.2213089333099</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>253.2072517179839</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>62.80363837989029</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>277.5651248415508</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>315.128434197946</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>253.2072517179839</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>62.72609936935643</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>147.5112850967134</v>
       </c>
       <c r="T21" t="n">
-        <v>194.4572693097595</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.84822441963</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180.4481601018587</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>112.1537208505822</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.50888927010597</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>275.3843052225483</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>78.1636065770829</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>16.61464754708095</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>142.7654571737762</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2293911801174113</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>40.20690263795975</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.627950660891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.8707348436268</v>
+        <v>206.1440589492343</v>
       </c>
       <c r="H26" t="n">
-        <v>52.39333130435581</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>1.922007437982009</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
         <v>192.7632183107638</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>101.1787687262608</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>40.20690263795978</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.33162915224757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>162.8319321677266</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>191.3784863087074</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>108.4346551911461</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>51.85254607929991</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>39.19398801432182</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>128.5292955912967</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>256.5002958137346</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8829354256238</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>12.07693347154785</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>82.68049957052378</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.8205739680685</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>111.9404544080154</v>
       </c>
       <c r="H34" t="n">
-        <v>47.13448943355824</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>254.8769430496827</v>
       </c>
       <c r="G35" t="n">
-        <v>176.3304272509212</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>86.00408269744338</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>27.25699312606514</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H37" t="n">
-        <v>47.13448943355824</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>13.84443721704976</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>176.3304272509212</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>340.4072739150097</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>69.87632732971853</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>108.429245276855</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
-        <v>9.854692234072633</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>11.66292684540654</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>64.11768577415867</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.8707348436268</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>86.94757077042773</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,10 +3827,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>110.1804657181385</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>106.0588020198916</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
         <v>225.8205739680685</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>95.13127805592882</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>220.013305673654</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>189.2183449480038</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>134.1907930857626</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>110.1804657181385</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>107.0407504967643</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
         <v>225.8205739680685</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>180.2959383279816</v>
       </c>
       <c r="U46" t="n">
-        <v>185.627950660891</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5795743543409</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5795743543409</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="D2" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E2" t="n">
         <v>3.98360056216997</v>
@@ -4357,25 +4357,25 @@
         <v>156.7444867130883</v>
       </c>
       <c r="S2" t="n">
-        <v>154.8775612504264</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="T2" t="n">
-        <v>104.5795743543409</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="U2" t="n">
-        <v>104.5795743543409</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V2" t="n">
-        <v>104.5795743543409</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="W2" t="n">
-        <v>104.5795743543409</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5795743543409</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.5795743543409</v>
+        <v>5.850526024831893</v>
       </c>
     </row>
     <row r="3">
@@ -4418,7 +4418,7 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N3" t="n">
         <v>121.1430747948175</v>
@@ -4433,28 +4433,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R3" t="n">
-        <v>199.1800281084985</v>
+        <v>148.882041212413</v>
       </c>
       <c r="S3" t="n">
-        <v>199.1800281084985</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="T3" t="n">
-        <v>199.1800281084985</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="U3" t="n">
-        <v>199.1800281084985</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="V3" t="n">
-        <v>148.882041212413</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="W3" t="n">
-        <v>98.58405431632752</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="X3" t="n">
         <v>48.28606742024204</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
     </row>
     <row r="4">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="H5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="I5" t="n">
         <v>7.413195943128176</v>
@@ -4588,31 +4588,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q5" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R5" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S5" t="n">
-        <v>253.1663421328477</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T5" t="n">
-        <v>159.5653832549667</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U5" t="n">
-        <v>159.5653832549667</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V5" t="n">
-        <v>65.96442437708571</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C6" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D6" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E6" t="n">
         <v>7.413195943128176</v>
@@ -4649,16 +4649,16 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K6" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L6" t="n">
-        <v>102.6982772648967</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M6" t="n">
-        <v>194.4365770611079</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N6" t="n">
-        <v>226.5580308522524</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O6" t="n">
         <v>317.2247932514005</v>
@@ -4667,31 +4667,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R6" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S6" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T6" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="U6" t="n">
-        <v>288.2160725767712</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V6" t="n">
         <v>194.6151136988902</v>
       </c>
       <c r="W6" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X6" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2417925668748</v>
+        <v>348.704346521884</v>
       </c>
       <c r="C8" t="n">
-        <v>254.2417925668748</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2417925668748</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2417925668748</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2417925668748</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G8" t="n">
-        <v>140.9966813295781</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H8" t="n">
-        <v>27.75157009228141</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I8" t="n">
-        <v>27.75157009228141</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993897</v>
@@ -4810,10 +4810,10 @@
         <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773408</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083931</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
         <v>313.4124509320676</v>
@@ -4825,31 +4825,31 @@
         <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454354</v>
+        <v>348.704346521884</v>
       </c>
       <c r="U8" t="n">
-        <v>432.6813068454354</v>
+        <v>348.704346521884</v>
       </c>
       <c r="V8" t="n">
-        <v>432.6813068454354</v>
+        <v>348.704346521884</v>
       </c>
       <c r="W8" t="n">
-        <v>367.4869038041714</v>
+        <v>348.704346521884</v>
       </c>
       <c r="X8" t="n">
-        <v>254.2417925668748</v>
+        <v>348.704346521884</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.2417925668748</v>
+        <v>348.704346521884</v>
       </c>
     </row>
     <row r="9">
@@ -4904,28 +4904,28 @@
         <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996948</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="U9" t="n">
-        <v>348.704346521884</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="V9" t="n">
-        <v>235.4592352845873</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="W9" t="n">
-        <v>122.2141240472906</v>
+        <v>212.6103586555849</v>
       </c>
       <c r="X9" t="n">
-        <v>8.969012809993897</v>
+        <v>99.36524741828821</v>
       </c>
       <c r="Y9" t="n">
         <v>8.969012809993897</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
         <v>8.969012809993897</v>
@@ -4989,25 +4989,25 @@
         <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="C11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="D11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="E11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="F11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="G11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678478</v>
+        <v>45.38705923343218</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058939</v>
+        <v>133.7896512396351</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079184</v>
+        <v>280.3626455731801</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644753</v>
+        <v>475.1227808058537</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123826</v>
+        <v>677.6481470208774</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985581</v>
+        <v>855.551846147023</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>972.8875365446869</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>1012.829006871936</v>
       </c>
       <c r="R11" t="n">
-        <v>672.2420264262252</v>
+        <v>1000.069165053903</v>
       </c>
       <c r="S11" t="n">
-        <v>511.8624171433432</v>
+        <v>1000.069165053903</v>
       </c>
       <c r="T11" t="n">
-        <v>511.8624171433432</v>
+        <v>785.4743377823698</v>
       </c>
       <c r="U11" t="n">
-        <v>511.8624171433432</v>
+        <v>531.7863815879115</v>
       </c>
       <c r="V11" t="n">
-        <v>511.8624171433432</v>
+        <v>276.0214808626751</v>
       </c>
       <c r="W11" t="n">
-        <v>322.4426321268585</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="X11" t="n">
-        <v>133.0228471103738</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.8429936158252</v>
+        <v>24.76607434207733</v>
       </c>
       <c r="C12" t="n">
-        <v>181.8429936158252</v>
+        <v>24.76607434207733</v>
       </c>
       <c r="D12" t="n">
-        <v>181.8429936158252</v>
+        <v>24.76607434207733</v>
       </c>
       <c r="E12" t="n">
-        <v>181.8429936158252</v>
+        <v>24.76607434207733</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8429936158252</v>
+        <v>24.76607434207733</v>
       </c>
       <c r="G12" t="n">
-        <v>176.361962382226</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="H12" t="n">
-        <v>74.50160142188287</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024208</v>
+        <v>91.83061903642638</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772649</v>
+        <v>234.3932882762803</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140243</v>
+        <v>420.1140672047608</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546599</v>
+        <v>625.1589674378004</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476346</v>
+        <v>790.5151971795234</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>903.8950833667045</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652795</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652795</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487947</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="V12" t="n">
-        <v>371.26277863231</v>
+        <v>694.6152300407657</v>
       </c>
       <c r="W12" t="n">
-        <v>181.8429936158252</v>
+        <v>440.3778733125641</v>
       </c>
       <c r="X12" t="n">
-        <v>181.8429936158252</v>
+        <v>232.5263731070312</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.8429936158252</v>
+        <v>24.76607434207733</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="D13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="E13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="F13" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230175</v>
+        <v>47.30107877210207</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170716</v>
+        <v>79.0739936780196</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396334</v>
+        <v>117.9489455893791</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="R13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="S13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="T13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="U13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="V13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="W13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="X13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.00204697330559</v>
+        <v>133.5431668551985</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.841617006275</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="C14" t="n">
-        <v>393.841617006275</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="D14" t="n">
-        <v>393.841617006275</v>
+        <v>649.6736203663737</v>
       </c>
       <c r="E14" t="n">
-        <v>393.841617006275</v>
+        <v>393.9087196411373</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897903</v>
+        <v>393.9087196411373</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330559</v>
+        <v>138.143818915901</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>138.143818915901</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678489</v>
+        <v>45.38705923343218</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058939</v>
+        <v>133.7896512396351</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>280.3626455731801</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644754</v>
+        <v>475.1227808058537</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>677.6481470208774</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985582</v>
+        <v>855.551846147023</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020263</v>
+        <v>972.8875365446869</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652795</v>
+        <v>1012.829006871936</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652795</v>
+        <v>949.3909883063902</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652795</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="T14" t="n">
-        <v>560.6825636487947</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="U14" t="n">
-        <v>393.841617006275</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="V14" t="n">
-        <v>393.841617006275</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="W14" t="n">
-        <v>393.841617006275</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="X14" t="n">
-        <v>393.841617006275</v>
+        <v>794.2432775363943</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.841617006275</v>
+        <v>794.2432775363943</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="C15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="D15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="E15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024213</v>
+        <v>91.83061903642638</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>234.3932882762803</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140244</v>
+        <v>420.1140672047608</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546601</v>
+        <v>625.1589674378004</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476348</v>
+        <v>790.5151971795234</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017063</v>
+        <v>903.8950833667045</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652797</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652797</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652795</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="T15" t="n">
-        <v>583.2614020227597</v>
+        <v>737.7831838575519</v>
       </c>
       <c r="U15" t="n">
-        <v>393.841617006275</v>
+        <v>509.6460450973831</v>
       </c>
       <c r="V15" t="n">
-        <v>393.841617006275</v>
+        <v>274.4939368656404</v>
       </c>
       <c r="W15" t="n">
-        <v>393.841617006275</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4218319897903</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="F16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="G16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="H16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230175</v>
+        <v>47.30107877210207</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170716</v>
+        <v>79.0739936780196</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396334</v>
+        <v>117.9489455893791</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743872</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>623.8906374019941</v>
+        <v>798.234179600403</v>
       </c>
       <c r="C17" t="n">
-        <v>623.8906374019941</v>
+        <v>798.234179600403</v>
       </c>
       <c r="D17" t="n">
-        <v>623.8906374019941</v>
+        <v>798.234179600403</v>
       </c>
       <c r="E17" t="n">
-        <v>305.5790877070991</v>
+        <v>798.234179600403</v>
       </c>
       <c r="F17" t="n">
-        <v>305.5790877070991</v>
+        <v>542.4692788751665</v>
       </c>
       <c r="G17" t="n">
-        <v>25.21027473583568</v>
+        <v>286.7043781499302</v>
       </c>
       <c r="H17" t="n">
-        <v>25.21027473583568</v>
+        <v>30.93947742469379</v>
       </c>
       <c r="I17" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J17" t="n">
-        <v>68.34610104031901</v>
+        <v>45.38705923343218</v>
       </c>
       <c r="K17" t="n">
-        <v>183.7340411072821</v>
+        <v>133.7896512396348</v>
       </c>
       <c r="L17" t="n">
-        <v>363.7847459179035</v>
+        <v>280.36264557318</v>
       </c>
       <c r="M17" t="n">
-        <v>595.7952845205559</v>
+        <v>475.1227808058536</v>
       </c>
       <c r="N17" t="n">
-        <v>836.1738045761826</v>
+        <v>677.6481470208774</v>
       </c>
       <c r="O17" t="n">
-        <v>1049.82116348494</v>
+        <v>855.5518461470233</v>
       </c>
       <c r="P17" t="n">
-        <v>1197.663240548268</v>
+        <v>972.8875365446869</v>
       </c>
       <c r="Q17" t="n">
-        <v>1260.513736791784</v>
+        <v>1012.829006871936</v>
       </c>
       <c r="R17" t="n">
-        <v>1260.513736791784</v>
+        <v>1012.829006871936</v>
       </c>
       <c r="S17" t="n">
-        <v>1260.513736791784</v>
+        <v>1012.829006871936</v>
       </c>
       <c r="T17" t="n">
-        <v>1260.513736791784</v>
+        <v>798.234179600403</v>
       </c>
       <c r="U17" t="n">
-        <v>1260.513736791784</v>
+        <v>798.234179600403</v>
       </c>
       <c r="V17" t="n">
-        <v>1260.513736791784</v>
+        <v>798.234179600403</v>
       </c>
       <c r="W17" t="n">
-        <v>1260.513736791784</v>
+        <v>798.234179600403</v>
       </c>
       <c r="X17" t="n">
-        <v>942.2021870968891</v>
+        <v>798.234179600403</v>
       </c>
       <c r="Y17" t="n">
-        <v>623.8906374019941</v>
+        <v>798.234179600403</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.3280562176601</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="C18" t="n">
-        <v>360.3280562176601</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="D18" t="n">
-        <v>360.3280562176601</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="E18" t="n">
-        <v>360.3280562176601</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="F18" t="n">
-        <v>213.793498244545</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="G18" t="n">
-        <v>76.49297227407163</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="H18" t="n">
-        <v>76.49297227407163</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="I18" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J18" t="n">
-        <v>32.08383041579935</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="K18" t="n">
-        <v>121.9866566016228</v>
+        <v>91.83061903642638</v>
       </c>
       <c r="L18" t="n">
-        <v>289.1946422614675</v>
+        <v>234.3932882762803</v>
       </c>
       <c r="M18" t="n">
-        <v>503.6753430076002</v>
+        <v>420.1140672047608</v>
       </c>
       <c r="N18" t="n">
-        <v>738.2413546109869</v>
+        <v>625.1589674378004</v>
       </c>
       <c r="O18" t="n">
-        <v>930.6036338393324</v>
+        <v>790.5151971795234</v>
       </c>
       <c r="P18" t="n">
-        <v>1065.658255634908</v>
+        <v>903.8950833667045</v>
       </c>
       <c r="Q18" t="n">
-        <v>1106.019497291291</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="R18" t="n">
-        <v>1047.672513758527</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="S18" t="n">
-        <v>900.8223541112501</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="T18" t="n">
-        <v>900.8223541112501</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="U18" t="n">
-        <v>900.8223541112501</v>
+        <v>701.6301995123397</v>
       </c>
       <c r="V18" t="n">
-        <v>900.8223541112501</v>
+        <v>466.478091280597</v>
       </c>
       <c r="W18" t="n">
-        <v>900.8223541112501</v>
+        <v>228.1080803429716</v>
       </c>
       <c r="X18" t="n">
-        <v>692.9708539057173</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="Y18" t="n">
-        <v>485.2105551407633</v>
+        <v>20.25658013743872</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="C19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="D19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="E19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="F19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="G19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="H19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="I19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="J19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="K19" t="n">
-        <v>34.03013544641117</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="L19" t="n">
-        <v>75.22231828639516</v>
+        <v>47.30107877210207</v>
       </c>
       <c r="M19" t="n">
-        <v>121.9119825351245</v>
+        <v>79.0739936780196</v>
       </c>
       <c r="N19" t="n">
-        <v>175.3489968304978</v>
+        <v>117.9489455893791</v>
       </c>
       <c r="O19" t="n">
-        <v>204.3936396460497</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="P19" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="R19" t="n">
-        <v>85.01671558469805</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="S19" t="n">
-        <v>85.01671558469805</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="T19" t="n">
-        <v>85.01671558469805</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="U19" t="n">
-        <v>85.01671558469805</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="V19" t="n">
-        <v>85.01671558469805</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="W19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="X19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743872</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>661.8333741256257</v>
+        <v>693.6260875811537</v>
       </c>
       <c r="C20" t="n">
-        <v>661.8333741256257</v>
+        <v>693.6260875811537</v>
       </c>
       <c r="D20" t="n">
-        <v>661.8333741256257</v>
+        <v>437.8611868559174</v>
       </c>
       <c r="E20" t="n">
-        <v>343.5218244307307</v>
+        <v>437.8611868559174</v>
       </c>
       <c r="F20" t="n">
-        <v>25.21027473583568</v>
+        <v>276.021480862675</v>
       </c>
       <c r="G20" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="H20" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="I20" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="J20" t="n">
-        <v>68.34610104031901</v>
+        <v>45.38705923343221</v>
       </c>
       <c r="K20" t="n">
-        <v>183.734041107282</v>
+        <v>133.789651239635</v>
       </c>
       <c r="L20" t="n">
-        <v>363.7847459179036</v>
+        <v>280.36264557318</v>
       </c>
       <c r="M20" t="n">
-        <v>595.7952845205562</v>
+        <v>475.1227808058537</v>
       </c>
       <c r="N20" t="n">
-        <v>836.1738045761826</v>
+        <v>677.6481470208776</v>
       </c>
       <c r="O20" t="n">
-        <v>1049.82116348494</v>
+        <v>855.5518461470231</v>
       </c>
       <c r="P20" t="n">
-        <v>1197.663240548268</v>
+        <v>972.8875365446867</v>
       </c>
       <c r="Q20" t="n">
-        <v>1260.513736791784</v>
+        <v>1012.829006871936</v>
       </c>
       <c r="R20" t="n">
-        <v>1260.513736791784</v>
+        <v>949.39098830639</v>
       </c>
       <c r="S20" t="n">
-        <v>1260.513736791784</v>
+        <v>949.39098830639</v>
       </c>
       <c r="T20" t="n">
-        <v>1260.513736791784</v>
+        <v>949.39098830639</v>
       </c>
       <c r="U20" t="n">
-        <v>1260.513736791784</v>
+        <v>949.39098830639</v>
       </c>
       <c r="V20" t="n">
-        <v>980.1449238205207</v>
+        <v>949.39098830639</v>
       </c>
       <c r="W20" t="n">
-        <v>661.8333741256257</v>
+        <v>949.39098830639</v>
       </c>
       <c r="X20" t="n">
-        <v>661.8333741256257</v>
+        <v>693.6260875811537</v>
       </c>
       <c r="Y20" t="n">
-        <v>661.8333741256257</v>
+        <v>693.6260875811537</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>330.9822877144062</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="C21" t="n">
-        <v>330.9822877144062</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="D21" t="n">
-        <v>330.9822877144062</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="E21" t="n">
-        <v>171.7448327089507</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="F21" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="G21" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="H21" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="I21" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="J21" t="n">
-        <v>32.08383041579935</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="K21" t="n">
-        <v>121.9866566016228</v>
+        <v>91.83061903642638</v>
       </c>
       <c r="L21" t="n">
-        <v>289.1946422614675</v>
+        <v>234.3932882762803</v>
       </c>
       <c r="M21" t="n">
-        <v>503.6753430076002</v>
+        <v>420.1140672047608</v>
       </c>
       <c r="N21" t="n">
-        <v>738.2413546109869</v>
+        <v>625.1589674378004</v>
       </c>
       <c r="O21" t="n">
-        <v>930.6036338393324</v>
+        <v>790.5151971795234</v>
       </c>
       <c r="P21" t="n">
-        <v>1065.658255634908</v>
+        <v>903.8950833667045</v>
       </c>
       <c r="Q21" t="n">
-        <v>1106.019497291291</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="R21" t="n">
-        <v>1106.019497291291</v>
+        <v>929.7673382725084</v>
       </c>
       <c r="S21" t="n">
-        <v>1106.019497291291</v>
+        <v>780.7660401950202</v>
       </c>
       <c r="T21" t="n">
-        <v>909.5980131400185</v>
+        <v>780.7660401950202</v>
       </c>
       <c r="U21" t="n">
-        <v>681.4684935242306</v>
+        <v>780.7660401950202</v>
       </c>
       <c r="V21" t="n">
-        <v>499.1976247344742</v>
+        <v>545.6139319632775</v>
       </c>
       <c r="W21" t="n">
-        <v>499.1976247344742</v>
+        <v>291.3765752350759</v>
       </c>
       <c r="X21" t="n">
-        <v>499.1976247344742</v>
+        <v>291.3765752350759</v>
       </c>
       <c r="Y21" t="n">
-        <v>499.1976247344742</v>
+        <v>83.61627647012199</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.3269141481714</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="C22" t="n">
-        <v>175.3269141481714</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="D22" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="E22" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="F22" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="G22" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="H22" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="I22" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="J22" t="n">
-        <v>25.21027473583568</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="K22" t="n">
-        <v>34.03013544641117</v>
+        <v>20.25658013743871</v>
       </c>
       <c r="L22" t="n">
-        <v>75.22231828639516</v>
+        <v>47.30107877210207</v>
       </c>
       <c r="M22" t="n">
-        <v>121.9119825351245</v>
+        <v>79.0739936780196</v>
       </c>
       <c r="N22" t="n">
-        <v>175.3489968304978</v>
+        <v>117.9489455893791</v>
       </c>
       <c r="O22" t="n">
-        <v>204.3936396460497</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="P22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="R22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="S22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="T22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="U22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="V22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="W22" t="n">
-        <v>210.1843780573693</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="X22" t="n">
-        <v>175.3269141481714</v>
+        <v>133.5431668551985</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.3269141481714</v>
+        <v>133.5431668551985</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>707.8891122510367</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="C23" t="n">
-        <v>707.8891122510367</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D23" t="n">
-        <v>707.8891122510367</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E23" t="n">
-        <v>707.8891122510367</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F23" t="n">
-        <v>707.8891122510367</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G23" t="n">
-        <v>429.7231473797759</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H23" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I23" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J23" t="n">
         <v>152.5078184301904</v>
@@ -6010,31 +6010,31 @@
         <v>2021.630958172449</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904655</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="U23" t="n">
-        <v>2168.459826904655</v>
+        <v>1704.67866471908</v>
       </c>
       <c r="V23" t="n">
-        <v>1837.396939561084</v>
+        <v>1704.67866471908</v>
       </c>
       <c r="W23" t="n">
-        <v>1484.62828429097</v>
+        <v>1351.910009448966</v>
       </c>
       <c r="X23" t="n">
-        <v>1484.62828429097</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="Y23" t="n">
-        <v>1094.488952315158</v>
+        <v>1335.127537179187</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>672.5286484590418</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C24" t="n">
         <v>498.0756191779149</v>
       </c>
       <c r="D24" t="n">
-        <v>349.1412095166636</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E24" t="n">
         <v>189.9037545112081</v>
       </c>
       <c r="F24" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G24" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H24" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I24" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K24" t="n">
         <v>246.6448318504523</v>
@@ -6092,28 +6092,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R24" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S24" t="n">
-        <v>1595.273638474384</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T24" t="n">
-        <v>1400.56331694836</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U24" t="n">
-        <v>1256.355784449597</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V24" t="n">
-        <v>1256.355784449597</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W24" t="n">
-        <v>1256.355784449597</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X24" t="n">
         <v>1048.504284244064</v>
       </c>
       <c r="Y24" t="n">
-        <v>840.7439854791098</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="C25" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="D25" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="E25" t="n">
-        <v>43.3691965380931</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K25" t="n">
         <v>92.71685897981541</v>
@@ -6192,7 +6192,7 @@
         <v>230.8721770036396</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036396</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2036.325171642786</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="C26" t="n">
-        <v>1667.362654702375</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="D26" t="n">
-        <v>1309.096956095624</v>
+        <v>662.5814234986444</v>
       </c>
       <c r="E26" t="n">
-        <v>923.3087034973801</v>
+        <v>662.5814234986444</v>
       </c>
       <c r="F26" t="n">
-        <v>512.3227987077726</v>
+        <v>251.5955187090369</v>
       </c>
       <c r="G26" t="n">
-        <v>96.2917534111798</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H26" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J26" t="n">
         <v>152.5078184301904</v>
@@ -6247,31 +6247,31 @@
         <v>2021.630958172449</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T26" t="n">
-        <v>2036.325171642786</v>
+        <v>1958.28582905657</v>
       </c>
       <c r="U26" t="n">
-        <v>2036.325171642786</v>
+        <v>1704.67866471908</v>
       </c>
       <c r="V26" t="n">
-        <v>2036.325171642786</v>
+        <v>1373.615777375509</v>
       </c>
       <c r="W26" t="n">
-        <v>2036.325171642786</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="X26" t="n">
-        <v>2036.325171642786</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="Y26" t="n">
-        <v>2036.325171642786</v>
+        <v>1020.847122105395</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>422.235115227259</v>
+        <v>353.4824828593271</v>
       </c>
       <c r="C27" t="n">
-        <v>422.235115227259</v>
+        <v>353.4824828593271</v>
       </c>
       <c r="D27" t="n">
-        <v>422.235115227259</v>
+        <v>204.5480731980759</v>
       </c>
       <c r="E27" t="n">
-        <v>422.235115227259</v>
+        <v>45.31061819262038</v>
       </c>
       <c r="F27" t="n">
-        <v>275.700557254144</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G27" t="n">
-        <v>138.8245634692599</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K27" t="n">
         <v>246.6448318504523</v>
@@ -6329,28 +6329,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R27" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S27" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.516725807465</v>
+        <v>1400.56331694836</v>
       </c>
       <c r="U27" t="n">
-        <v>1343.415135940729</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V27" t="n">
-        <v>1108.263027708986</v>
+        <v>937.3096188498819</v>
       </c>
       <c r="W27" t="n">
-        <v>1006.062251217814</v>
+        <v>937.3096188498819</v>
       </c>
       <c r="X27" t="n">
-        <v>798.210751012281</v>
+        <v>729.458118644349</v>
       </c>
       <c r="Y27" t="n">
-        <v>590.4504522473271</v>
+        <v>521.6978198793952</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>211.5020259430747</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="C28" t="n">
-        <v>211.5020259430747</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="D28" t="n">
-        <v>211.5020259430747</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="E28" t="n">
-        <v>211.5020259430747</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F28" t="n">
-        <v>211.5020259430747</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809311</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K28" t="n">
         <v>92.71685897981541</v>
@@ -6414,22 +6414,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T28" t="n">
-        <v>296.6854897332238</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U28" t="n">
-        <v>296.6854897332238</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V28" t="n">
-        <v>296.6854897332238</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W28" t="n">
-        <v>296.6854897332238</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="X28" t="n">
-        <v>296.6854897332238</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.5020259430747</v>
+        <v>230.8721770036396</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1198.409052532695</v>
+        <v>515.2467085824462</v>
       </c>
       <c r="C29" t="n">
-        <v>1198.409052532695</v>
+        <v>515.2467085824462</v>
       </c>
       <c r="D29" t="n">
-        <v>840.1433539259449</v>
+        <v>515.2467085824462</v>
       </c>
       <c r="E29" t="n">
-        <v>454.3551013277007</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F29" t="n">
-        <v>43.36919653809313</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G29" t="n">
-        <v>43.36919653809313</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711879</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M29" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N29" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q29" t="n">
         <v>2168.459826904656</v>
@@ -6490,25 +6490,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S29" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T29" t="n">
-        <v>2168.459826904656</v>
+        <v>1826.151173794702</v>
       </c>
       <c r="U29" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.544009457211</v>
       </c>
       <c r="V29" t="n">
-        <v>2168.459826904656</v>
+        <v>1241.48112211364</v>
       </c>
       <c r="W29" t="n">
-        <v>2168.459826904656</v>
+        <v>888.712466843526</v>
       </c>
       <c r="X29" t="n">
-        <v>1975.148224572629</v>
+        <v>515.2467085824462</v>
       </c>
       <c r="Y29" t="n">
-        <v>1585.008892596817</v>
+        <v>515.2467085824462</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>217.8222258192201</v>
+        <v>523.5942387977907</v>
       </c>
       <c r="C30" t="n">
-        <v>43.36919653809313</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="D30" t="n">
-        <v>43.36919653809313</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E30" t="n">
-        <v>43.36919653809313</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K30" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L30" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M30" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N30" t="n">
         <v>1166.885386873582</v>
@@ -6569,25 +6569,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S30" t="n">
-        <v>1713.850738162479</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T30" t="n">
-        <v>1519.140416636455</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U30" t="n">
-        <v>1291.038826769719</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V30" t="n">
-        <v>1055.886718537977</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W30" t="n">
-        <v>801.649361809775</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X30" t="n">
-        <v>593.7978616042421</v>
+        <v>840.8844923012759</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.0375628392882</v>
+        <v>633.1241935363221</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1969.280341288883</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="C31" t="n">
-        <v>1969.280341288883</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="D31" t="n">
-        <v>1969.280341288883</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E31" t="n">
-        <v>1821.36724770649</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F31" t="n">
-        <v>1821.36724770649</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G31" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H31" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I31" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J31" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K31" t="n">
-        <v>1740.887338843872</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L31" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M31" t="n">
-        <v>1935.31163935679</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N31" t="n">
-        <v>2042.129286401803</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O31" t="n">
-        <v>2120.479583467423</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S31" t="n">
-        <v>1969.280341288883</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T31" t="n">
-        <v>1969.280341288883</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U31" t="n">
-        <v>1969.280341288883</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V31" t="n">
-        <v>1969.280341288883</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W31" t="n">
-        <v>1969.280341288883</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="X31" t="n">
-        <v>1969.280341288883</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="Y31" t="n">
-        <v>1969.280341288883</v>
+        <v>230.8721770036396</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1052.086081397651</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="C32" t="n">
-        <v>1052.086081397651</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="D32" t="n">
-        <v>1052.086081397651</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="E32" t="n">
-        <v>1052.086081397651</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="F32" t="n">
-        <v>641.1001766080433</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G32" t="n">
-        <v>225.0691313114505</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I32" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232732</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711883</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M32" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N32" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O32" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P32" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q32" t="n">
         <v>2168.459826904656</v>
@@ -6730,22 +6730,22 @@
         <v>2168.459826904656</v>
       </c>
       <c r="T32" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.459826904656</v>
+        <v>1704.67866471908</v>
       </c>
       <c r="V32" t="n">
-        <v>2168.459826904656</v>
+        <v>1373.615777375509</v>
       </c>
       <c r="W32" t="n">
-        <v>1815.691171634542</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="X32" t="n">
-        <v>1442.225413373463</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="Y32" t="n">
-        <v>1052.086081397651</v>
+        <v>1020.847122105395</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>672.528648459042</v>
+        <v>672.6691552812078</v>
       </c>
       <c r="C33" t="n">
-        <v>498.0756191779149</v>
+        <v>498.2161260000809</v>
       </c>
       <c r="D33" t="n">
-        <v>349.1412095166637</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E33" t="n">
-        <v>189.9037545112081</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F33" t="n">
-        <v>43.36919653809313</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G33" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I33" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J33" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K33" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L33" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M33" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N33" t="n">
         <v>1166.885386873582</v>
@@ -6803,28 +6803,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R33" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S33" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T33" t="n">
-        <v>1511.757982342542</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U33" t="n">
-        <v>1283.656392475807</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V33" t="n">
-        <v>1048.504284244064</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W33" t="n">
-        <v>1048.504284244064</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X33" t="n">
-        <v>1048.504284244064</v>
+        <v>840.8844923012759</v>
       </c>
       <c r="Y33" t="n">
-        <v>840.7439854791101</v>
+        <v>840.8844923012759</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2168.459826904656</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="C34" t="n">
-        <v>1999.52364397675</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="D34" t="n">
-        <v>1849.407004564414</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="E34" t="n">
-        <v>1849.407004564414</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="F34" t="n">
-        <v>1849.407004564414</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="G34" t="n">
-        <v>1849.407004564414</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H34" t="n">
-        <v>1801.796409176981</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I34" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J34" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K34" t="n">
-        <v>1740.887338843872</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L34" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M34" t="n">
-        <v>1935.31163935679</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.129286401803</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O34" t="n">
-        <v>2120.479583467423</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R34" t="n">
-        <v>2168.459826904656</v>
+        <v>411.1248508126824</v>
       </c>
       <c r="S34" t="n">
-        <v>2168.459826904656</v>
+        <v>411.1248508126824</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.459826904656</v>
+        <v>411.1248508126824</v>
       </c>
       <c r="U34" t="n">
-        <v>2168.459826904656</v>
+        <v>411.1248508126824</v>
       </c>
       <c r="V34" t="n">
-        <v>2168.459826904656</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="W34" t="n">
-        <v>2168.459826904656</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="X34" t="n">
-        <v>2168.459826904656</v>
+        <v>156.4403626067956</v>
       </c>
       <c r="Y34" t="n">
-        <v>2168.459826904656</v>
+        <v>156.4403626067956</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1018.254896603643</v>
+        <v>795.8048374172774</v>
       </c>
       <c r="C35" t="n">
-        <v>1018.254896603643</v>
+        <v>795.8048374172774</v>
       </c>
       <c r="D35" t="n">
-        <v>1018.254896603643</v>
+        <v>795.8048374172774</v>
       </c>
       <c r="E35" t="n">
-        <v>632.4666440053988</v>
+        <v>795.8048374172774</v>
       </c>
       <c r="F35" t="n">
-        <v>221.4807392157913</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G35" t="n">
-        <v>43.36919653809313</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H35" t="n">
-        <v>43.36919653809313</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J35" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N35" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q35" t="n">
         <v>2168.459826904656</v>
@@ -6964,25 +6964,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904656</v>
+        <v>1826.151173794702</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.544009457211</v>
       </c>
       <c r="V35" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.544009457211</v>
       </c>
       <c r="W35" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.544009457211</v>
       </c>
       <c r="X35" t="n">
-        <v>1794.994068643577</v>
+        <v>1572.544009457211</v>
       </c>
       <c r="Y35" t="n">
-        <v>1404.854736667765</v>
+        <v>1182.404677481399</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>351.5410612047999</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C36" t="n">
-        <v>351.5410612047999</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D36" t="n">
-        <v>202.6066515435486</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E36" t="n">
-        <v>43.36919653809313</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K36" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L36" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M36" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N36" t="n">
         <v>1166.885386873582</v>
@@ -7043,25 +7043,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S36" t="n">
-        <v>1679.354236527991</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T36" t="n">
-        <v>1484.643915001967</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U36" t="n">
-        <v>1256.542325135231</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V36" t="n">
-        <v>1021.390216903488</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W36" t="n">
-        <v>767.1528601752866</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X36" t="n">
-        <v>559.3013599697538</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y36" t="n">
-        <v>351.5410612047999</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2168.459826904656</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="C37" t="n">
-        <v>1999.52364397675</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="D37" t="n">
-        <v>1849.407004564414</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="E37" t="n">
-        <v>1849.407004564414</v>
+        <v>358.3919734409851</v>
       </c>
       <c r="F37" t="n">
-        <v>1849.407004564414</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G37" t="n">
-        <v>1849.407004564414</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H37" t="n">
-        <v>1801.796409176981</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K37" t="n">
-        <v>1740.887338843872</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L37" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M37" t="n">
-        <v>1935.31163935679</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N37" t="n">
-        <v>2042.129286401803</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O37" t="n">
-        <v>2120.479583467423</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U37" t="n">
-        <v>2168.459826904656</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="V37" t="n">
-        <v>2168.459826904656</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="W37" t="n">
-        <v>2168.459826904656</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="X37" t="n">
-        <v>2168.459826904656</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="Y37" t="n">
-        <v>2168.459826904656</v>
+        <v>506.3050670233782</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1018.254896603643</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="C38" t="n">
-        <v>1018.254896603643</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="D38" t="n">
-        <v>1018.254896603643</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E38" t="n">
-        <v>632.4666440053988</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F38" t="n">
-        <v>221.4807392157913</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I38" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M38" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O38" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P38" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q38" t="n">
         <v>2168.459826904656</v>
@@ -7204,22 +7204,22 @@
         <v>2168.459826904656</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="U38" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="V38" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="W38" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="X38" t="n">
-        <v>1794.994068643577</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="Y38" t="n">
-        <v>1404.854736667765</v>
+        <v>1614.440097829288</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>217.8222258192201</v>
+        <v>733.4522330887085</v>
       </c>
       <c r="C39" t="n">
-        <v>43.36919653809313</v>
+        <v>558.9992038075815</v>
       </c>
       <c r="D39" t="n">
-        <v>43.36919653809313</v>
+        <v>410.0647941463302</v>
       </c>
       <c r="E39" t="n">
-        <v>43.36919653809313</v>
+        <v>250.8273391408747</v>
       </c>
       <c r="F39" t="n">
-        <v>43.36919653809313</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G39" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H39" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J39" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K39" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L39" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M39" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N39" t="n">
         <v>1166.885386873582</v>
@@ -7277,28 +7277,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R39" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S39" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T39" t="n">
-        <v>1400.563316948361</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U39" t="n">
-        <v>1291.038826769719</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="V39" t="n">
-        <v>1055.886718537977</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="W39" t="n">
-        <v>801.649361809775</v>
+        <v>1317.279369079263</v>
       </c>
       <c r="X39" t="n">
-        <v>593.7978616042421</v>
+        <v>1109.42786887373</v>
       </c>
       <c r="Y39" t="n">
-        <v>386.0375628392882</v>
+        <v>901.6675701087765</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>520.2893470406002</v>
+        <v>508.5086128533209</v>
       </c>
       <c r="C40" t="n">
-        <v>351.3531641126933</v>
+        <v>508.5086128533209</v>
       </c>
       <c r="D40" t="n">
-        <v>201.2365247003576</v>
+        <v>358.3919734409851</v>
       </c>
       <c r="E40" t="n">
-        <v>53.32343111796447</v>
+        <v>358.3919734409851</v>
       </c>
       <c r="F40" t="n">
-        <v>53.32343111796447</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G40" t="n">
-        <v>53.32343111796447</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H40" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J40" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K40" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L40" t="n">
         <v>185.7706748018945</v>
@@ -7365,19 +7365,19 @@
         <v>520.2893470406002</v>
       </c>
       <c r="U40" t="n">
-        <v>520.2893470406002</v>
+        <v>508.5086128533209</v>
       </c>
       <c r="V40" t="n">
-        <v>520.2893470406002</v>
+        <v>508.5086128533209</v>
       </c>
       <c r="W40" t="n">
-        <v>520.2893470406002</v>
+        <v>508.5086128533209</v>
       </c>
       <c r="X40" t="n">
-        <v>520.2893470406002</v>
+        <v>508.5086128533209</v>
       </c>
       <c r="Y40" t="n">
-        <v>520.2893470406002</v>
+        <v>508.5086128533209</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1186.628457381848</v>
+        <v>1293.417184396861</v>
       </c>
       <c r="C41" t="n">
-        <v>817.6659404414363</v>
+        <v>1293.417184396861</v>
       </c>
       <c r="D41" t="n">
-        <v>459.4002418346859</v>
+        <v>935.1514857901102</v>
       </c>
       <c r="E41" t="n">
-        <v>459.4002418346859</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F41" t="n">
         <v>459.4002418346859</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T41" t="n">
-        <v>1958.285829056571</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U41" t="n">
-        <v>1870.459999995533</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="V41" t="n">
-        <v>1539.397112651962</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="W41" t="n">
-        <v>1186.628457381848</v>
+        <v>1683.556516372672</v>
       </c>
       <c r="X41" t="n">
-        <v>1186.628457381848</v>
+        <v>1683.556516372672</v>
       </c>
       <c r="Y41" t="n">
-        <v>1186.628457381848</v>
+        <v>1293.417184396861</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>928.2268700570932</v>
+        <v>478.0500351957629</v>
       </c>
       <c r="C42" t="n">
-        <v>753.7738407759662</v>
+        <v>303.5970059146358</v>
       </c>
       <c r="D42" t="n">
-        <v>604.8394311147149</v>
+        <v>154.6625962533845</v>
       </c>
       <c r="E42" t="n">
-        <v>445.6019761092594</v>
+        <v>154.6625962533845</v>
       </c>
       <c r="F42" t="n">
-        <v>445.6019761092594</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G42" t="n">
-        <v>445.6019761092594</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H42" t="n">
-        <v>445.6019761092594</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I42" t="n">
-        <v>445.6019761092594</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J42" t="n">
-        <v>491.7863446767897</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K42" t="n">
-        <v>648.8776114216187</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L42" t="n">
-        <v>906.4287469816065</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M42" t="n">
-        <v>1226.335642450116</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N42" t="n">
-        <v>1569.118166444748</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O42" t="n">
-        <v>1860.477412699315</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P42" t="n">
-        <v>2074.985828260215</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q42" t="n">
-        <v>2168.459826904656</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R42" t="n">
-        <v>2168.459826904656</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S42" t="n">
-        <v>2168.459826904656</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T42" t="n">
-        <v>2061.32972385426</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U42" t="n">
-        <v>1833.228133987524</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="V42" t="n">
-        <v>1598.076025755782</v>
+        <v>1108.263027708986</v>
       </c>
       <c r="W42" t="n">
-        <v>1343.83866902758</v>
+        <v>854.0256709807848</v>
       </c>
       <c r="X42" t="n">
-        <v>1135.987168822047</v>
+        <v>854.0256709807848</v>
       </c>
       <c r="Y42" t="n">
-        <v>928.2268700570932</v>
+        <v>646.2653722158309</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.36919653809311</v>
+        <v>139.4613965945869</v>
       </c>
       <c r="C43" t="n">
-        <v>43.36919653809311</v>
+        <v>139.4613965945869</v>
       </c>
       <c r="D43" t="n">
         <v>43.36919653809311</v>
@@ -7596,25 +7596,25 @@
         <v>520.2893470406002</v>
       </c>
       <c r="S43" t="n">
-        <v>520.2893470406002</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="T43" t="n">
-        <v>520.2893470406002</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="U43" t="n">
-        <v>298.05368474398</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="V43" t="n">
-        <v>43.36919653809311</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="W43" t="n">
-        <v>43.36919653809311</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="X43" t="n">
-        <v>43.36919653809311</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.36919653809311</v>
+        <v>321.1098614248266</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1256.174399222538</v>
+        <v>1061.515787985913</v>
       </c>
       <c r="C44" t="n">
-        <v>1256.174399222538</v>
+        <v>1061.515787985913</v>
       </c>
       <c r="D44" t="n">
-        <v>1256.174399222538</v>
+        <v>1061.515787985913</v>
       </c>
       <c r="E44" t="n">
-        <v>870.3861466242934</v>
+        <v>1061.515787985913</v>
       </c>
       <c r="F44" t="n">
-        <v>459.4002418346859</v>
+        <v>650.5298831963059</v>
       </c>
       <c r="G44" t="n">
-        <v>43.36919653809311</v>
+        <v>234.4988378997132</v>
       </c>
       <c r="H44" t="n">
         <v>43.36919653809311</v>
@@ -7651,10 +7651,10 @@
         <v>152.5078184301904</v>
       </c>
       <c r="K44" t="n">
-        <v>366.8168396232719</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711876</v>
       </c>
       <c r="M44" t="n">
         <v>1038.148464578731</v>
@@ -7675,25 +7675,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T44" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U44" t="n">
-        <v>2032.913571262471</v>
+        <v>1782.718007305296</v>
       </c>
       <c r="V44" t="n">
-        <v>2032.913571262471</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="W44" t="n">
-        <v>2032.913571262471</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="X44" t="n">
-        <v>2032.913571262471</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="Y44" t="n">
-        <v>1642.774239286659</v>
+        <v>1061.515787985913</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.8222258192201</v>
+        <v>478.0500351957629</v>
       </c>
       <c r="C45" t="n">
-        <v>43.36919653809311</v>
+        <v>303.5970059146358</v>
       </c>
       <c r="D45" t="n">
-        <v>43.36919653809311</v>
+        <v>154.6625962533845</v>
       </c>
       <c r="E45" t="n">
-        <v>43.36919653809311</v>
+        <v>154.6625962533845</v>
       </c>
       <c r="F45" t="n">
         <v>43.36919653809311</v>
@@ -7754,25 +7754,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S45" t="n">
-        <v>1627.262386835207</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T45" t="n">
-        <v>1519.140416636455</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U45" t="n">
-        <v>1291.038826769719</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="V45" t="n">
-        <v>1055.886718537977</v>
+        <v>1108.263027708986</v>
       </c>
       <c r="W45" t="n">
-        <v>801.649361809775</v>
+        <v>854.0256709807848</v>
       </c>
       <c r="X45" t="n">
-        <v>593.7978616042421</v>
+        <v>854.0256709807848</v>
       </c>
       <c r="Y45" t="n">
-        <v>386.0375628392882</v>
+        <v>646.2653722158309</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809311</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809311</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809311</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809311</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F46" t="n">
         <v>43.36919653809311</v>
@@ -7836,22 +7836,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T46" t="n">
-        <v>520.2893470406002</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="U46" t="n">
-        <v>332.7863665750537</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="V46" t="n">
-        <v>332.7863665750537</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="W46" t="n">
-        <v>43.36919653809311</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809311</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809311</v>
+        <v>338.1722376183966</v>
       </c>
     </row>
   </sheetData>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.8880345935584</v>
+        <v>352.8347854126476</v>
       </c>
       <c r="E2" t="n">
-        <v>332.1353630451372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22597,13 +22597,13 @@
         <v>115.3674336481769</v>
       </c>
       <c r="S2" t="n">
-        <v>170.8162517411861</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2180195592479</v>
+        <v>201.4230125321233</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>319.9360936513444</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>336.4429316289289</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>122.673741460376</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22673,10 +22673,10 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
-        <v>92.6799817290989</v>
+        <v>42.88497470197427</v>
       </c>
       <c r="S3" t="n">
-        <v>155.8274931817798</v>
+        <v>106.0324861546552</v>
       </c>
       <c r="T3" t="n">
         <v>196.7240278659264</v>
@@ -22688,13 +22688,13 @@
         <v>183.0055801223006</v>
       </c>
       <c r="W3" t="n">
-        <v>201.899976133795</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.823253587813</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22804,7 +22804,7 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I5" t="n">
-        <v>139.5561335235496</v>
+        <v>57.93684618970842</v>
       </c>
       <c r="J5" t="n">
         <v>24.91528667358037</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R5" t="n">
         <v>100.0310828299331</v>
       </c>
       <c r="S5" t="n">
-        <v>74.43607637216456</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T5" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V5" t="n">
         <v>235.0873091810327</v>
       </c>
       <c r="W5" t="n">
-        <v>291.2752525677951</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22868,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>54.78011627553656</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>64.98013116629875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
         <v>84.56947841277972</v>
@@ -22916,22 +22916,22 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>196.197498299121</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U6" t="n">
-        <v>158.6000800492519</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V6" t="n">
-        <v>140.1356378603231</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="7">
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>253.1602316460838</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>294.7633856167877</v>
       </c>
       <c r="G8" t="n">
         <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819524</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
         <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>95.3531516584621</v>
@@ -23074,7 +23074,7 @@
         <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>115.9683383215903</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>284.6985097065617</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.095592888813</v>
@@ -23153,22 +23153,22 @@
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>83.92423484016749</v>
       </c>
       <c r="U9" t="n">
-        <v>127.1251761724894</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.5823230359959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>93.66032507855377</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>116.190423515093</v>
       </c>
     </row>
     <row r="10">
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1324099710516</v>
+        <v>163.507032482248</v>
       </c>
       <c r="H10" t="n">
         <v>154.5937101357652</v>
@@ -23229,7 +23229,7 @@
         <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
-        <v>205.428697678537</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
         <v>224.2771565911783</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>412.8705340736013</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>314.5659986201601</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>116.7083663906776</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>50.17139498003738</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>153.596233662296</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>74.54500675215093</v>
       </c>
       <c r="W11" t="n">
-        <v>161.7153815510931</v>
+        <v>96.03371699942903</v>
       </c>
       <c r="X11" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>269.3973465203561</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>130.7375684445121</v>
+        <v>131.5777743328204</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.66720504223717</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>54.71734926660515</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>3.889197745894904</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>64.88204981594642</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>147.5112850967134</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920013</v>
+        <v>194.9194008930395</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377106</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V12" t="n">
-        <v>45.2749999831054</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459974</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>33.26732717234908</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8999766261806</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825418</v>
+        <v>49.86152826733213</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>2.25857709313054</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>5.776182683436048</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.47009429716282</v>
+        <v>60.14840011113783</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>205.0033958753615</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2595201165485</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>211.5590810223626</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>128.7231183542778</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637382</v>
+        <v>159.6632823556174</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>314.5659986201601</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.91829388988691</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U14" t="n">
-        <v>85.99672338893586</v>
+        <v>251.1510766325138</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0421735954127</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>99.66720504223717</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>54.71734926660515</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265839</v>
+        <v>3.889197745894904</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>64.88204981594642</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>147.5112850967134</v>
       </c>
       <c r="T15" t="n">
-        <v>30.23706061590673</v>
+        <v>4.855088022232565</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377106</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8999766261806</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I16" t="n">
-        <v>73.49127351643222</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825418</v>
+        <v>49.86152826733213</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>2.25857709313054</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,25 +23694,25 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>5.776182683436048</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159726</v>
+        <v>60.14840011113783</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>205.0033958753615</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2595201165485</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>139.9839224732459</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>66.80193587431575</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>153.6687940237275</v>
       </c>
       <c r="G17" t="n">
-        <v>135.0911236678742</v>
+        <v>159.6632823556174</v>
       </c>
       <c r="H17" t="n">
-        <v>312.3714465860387</v>
+        <v>61.35874690217611</v>
       </c>
       <c r="I17" t="n">
-        <v>108.4471221777677</v>
+        <v>106.1322980762951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>49.34302280919576</v>
+        <v>62.80363837989029</v>
       </c>
       <c r="S17" t="n">
-        <v>148.7132013686267</v>
+        <v>153.596233662296</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5108439416354</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1339337873797</v>
+        <v>251.1510766325138</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>54.602666480523</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>71.10950445810755</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.89950971599514</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0421735954127</v>
       </c>
       <c r="H18" t="n">
-        <v>98.55989955107017</v>
+        <v>99.66720504223717</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>54.71734926660515</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.889197745894904</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>64.88204981594642</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>147.5112850967134</v>
       </c>
       <c r="T18" t="n">
-        <v>194.4572693097595</v>
+        <v>194.9194008930395</v>
       </c>
       <c r="U18" t="n">
-        <v>225.84822441963</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>15.70867233267046</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8038554991351</v>
+        <v>166.8999766261806</v>
       </c>
       <c r="H19" t="n">
-        <v>151.6725621945439</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I19" t="n">
-        <v>119.7504228668709</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J19" t="n">
-        <v>43.06576458521448</v>
+        <v>49.86152826733213</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.25857709313054</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,28 +23931,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.776182683436048</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.09956646371779</v>
+        <v>60.14840011113783</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S19" t="n">
-        <v>203.3282667794866</v>
+        <v>205.0033958753615</v>
       </c>
       <c r="T19" t="n">
-        <v>222.8733329384441</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2542771459823</v>
+        <v>286.2595201165485</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>227.3146218962173</v>
+        <v>174.3692774860089</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>101.475789902699</v>
       </c>
       <c r="E20" t="n">
-        <v>66.80193587431575</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>91.7476115437654</v>
+        <v>246.6547368084015</v>
       </c>
       <c r="G20" t="n">
-        <v>412.656248509425</v>
+        <v>159.6632823556174</v>
       </c>
       <c r="H20" t="n">
-        <v>312.3714465860387</v>
+        <v>314.5659986201601</v>
       </c>
       <c r="I20" t="n">
-        <v>108.4471221777677</v>
+        <v>116.7083663906776</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>49.34302280919576</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>148.7132013686267</v>
+        <v>153.596233662296</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5108439416354</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1339337873797</v>
+        <v>251.1510766325138</v>
       </c>
       <c r="V20" t="n">
-        <v>50.18713362858415</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>34.11253451946698</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>116.5238489604851</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>103.8070842805109</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9275207107687</v>
+        <v>136.0421735954127</v>
       </c>
       <c r="H21" t="n">
-        <v>98.55989955107017</v>
+        <v>99.66720504223717</v>
       </c>
       <c r="I21" t="n">
-        <v>50.7698705628536</v>
+        <v>54.71734926660515</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.889197745894904</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.76351369743597</v>
+        <v>64.88204981594642</v>
       </c>
       <c r="S21" t="n">
-        <v>145.3816580508041</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.9194008930395</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V21" t="n">
-        <v>52.35242704756652</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>67.67825933135514</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8038554991351</v>
+        <v>166.8999766261806</v>
       </c>
       <c r="H22" t="n">
-        <v>151.6725621945439</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I22" t="n">
-        <v>119.7504228668709</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J22" t="n">
-        <v>43.06576458521448</v>
+        <v>49.86152826733213</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2.25857709313054</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.776182683436048</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.09956646371779</v>
+        <v>60.14840011113783</v>
       </c>
       <c r="R22" t="n">
-        <v>123.9159858479446</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S22" t="n">
-        <v>203.3282667794866</v>
+        <v>205.0033958753615</v>
       </c>
       <c r="T22" t="n">
-        <v>222.8733329384441</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2542771459823</v>
+        <v>286.2595201165485</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>191.2007661189312</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>136.4864296210785</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>353.1164531313881</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>83.05511679429236</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.5435940233601</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>106.2270600086094</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4515011109318</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.95670269120376</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>205.7266758943925</v>
       </c>
       <c r="H26" t="n">
-        <v>251.9334734518272</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
         <v>78.1636065770829</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24527,19 +24527,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.1472049554019</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I27" t="n">
         <v>36.2994675790488</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>150.5162144346588</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>106.2270600086094</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H28" t="n">
         <v>148.5398113612452</v>
@@ -24654,7 +24654,7 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
         <v>286.2350578157167</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>134.2530241998472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>219.0984379045352</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>78.1636065770829</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>178.3526143697617</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>58.09852845872128</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.5072338470352</v>
@@ -24809,10 +24809,10 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S30" t="n">
-        <v>85.72246781399929</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>109.4214850038905</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>37.92220551963504</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H31" t="n">
         <v>148.5398113612452</v>
@@ -24888,7 +24888,7 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T31" t="n">
         <v>221.3678187343026</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>98.18274580694833</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
-        <v>124.4438693305592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>78.1636065770829</v>
@@ -24970,22 +24970,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>135.3681320930909</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>94.50081326185511</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>110.08271874024</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>54.51104670291637</v>
       </c>
       <c r="H34" t="n">
-        <v>101.405321927687</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J34" t="n">
         <v>18.15430933923916</v>
@@ -25122,7 +25122,7 @@
         <v>22.59469128425545</v>
       </c>
       <c r="R34" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.1876907596158</v>
@@ -25134,7 +25134,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>151.9991026920288</v>
       </c>
       <c r="G35" t="n">
-        <v>235.5403075927056</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.5072338470352</v>
@@ -25283,16 +25283,16 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S36" t="n">
-        <v>51.57093119585582</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>205.5435940233601</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>101.405321927687</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J37" t="n">
         <v>18.15430933923916</v>
@@ -25368,7 +25368,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350578157167</v>
+        <v>272.3906205986669</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>235.5403075927056</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>304.326804756183</v>
@@ -25444,7 +25444,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.0710926941158</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>29.32382676345929</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>75.19288506366534</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185511</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>117.3913286912136</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.6851191271726</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I40" t="n">
         <v>109.1541654470835</v>
@@ -25605,7 +25605,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2350578157167</v>
+        <v>274.5721309703101</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>317.8126842981031</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>164.1235219236881</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,10 +25715,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>34.88874667524537</v>
       </c>
       <c r="G42" t="n">
         <v>135.5072338470352</v>
@@ -25760,7 +25760,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>86.7044162908722</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>53.48419496228354</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,16 +25836,16 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S43" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>66.22175214206268</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>304.326804756183</v>
+        <v>115.1084598081791</v>
       </c>
       <c r="I44" t="n">
         <v>78.1636065770829</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>116.8802996083533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>34.88874667524537</v>
       </c>
       <c r="G45" t="n">
         <v>135.5072338470352</v>
@@ -25994,10 +25994,10 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>85.72246781399949</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4515011109318</v>
@@ -26076,16 +26076,16 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>41.07188040632104</v>
       </c>
       <c r="U46" t="n">
-        <v>100.6071071548257</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>302456.9872241828</v>
+        <v>302456.9872241829</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>365065.7310253116</v>
+        <v>365065.7310253117</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>424931.0936061953</v>
+        <v>468224.6527275797</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424931.0936061951</v>
+        <v>468224.6527275797</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>509023.0632255151</v>
+        <v>468224.6527275797</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>509023.063225515</v>
+        <v>468224.6527275799</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658545.8706526523</v>
+        <v>658545.8706526521</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658545.8706526522</v>
+        <v>658545.870652652</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658545.8706526522</v>
+        <v>658545.870652652</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658545.8706526519</v>
+        <v>658545.8706526521</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658545.870652652</v>
+        <v>658545.8706526521</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>136004.8801859003</v>
       </c>
       <c r="E2" t="n">
-        <v>158307.6623238765</v>
+        <v>174436.6353298827</v>
       </c>
       <c r="F2" t="n">
-        <v>158307.6623238765</v>
+        <v>174436.6353298826</v>
       </c>
       <c r="G2" t="n">
-        <v>189636.0431624467</v>
+        <v>174436.6353298826</v>
       </c>
       <c r="H2" t="n">
-        <v>189636.0431624467</v>
+        <v>174436.6353298827</v>
       </c>
       <c r="I2" t="n">
         <v>245340.6184784388</v>
@@ -26340,13 +26340,13 @@
         <v>245340.6184784388</v>
       </c>
       <c r="K2" t="n">
-        <v>245340.6184784389</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="L2" t="n">
-        <v>245340.6184784389</v>
+        <v>245340.6184784388</v>
       </c>
       <c r="M2" t="n">
-        <v>245340.6184784389</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="N2" t="n">
         <v>245340.6184784388</v>
@@ -26374,37 +26374,37 @@
         <v>21905.62569575126</v>
       </c>
       <c r="E3" t="n">
-        <v>80646.21400928599</v>
+        <v>145682.2540662459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120376.4632767635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>207445.0213781872</v>
+        <v>264035.3461263074</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860502</v>
+        <v>13028.56481860496</v>
       </c>
       <c r="K3" t="n">
-        <v>11033.3513000807</v>
+        <v>11033.35130008067</v>
       </c>
       <c r="L3" t="n">
         <v>4922.040583148902</v>
       </c>
       <c r="M3" t="n">
-        <v>18793.20307042409</v>
+        <v>35161.33660335699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30707.75274100781</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>67.14558386063672</v>
+        <v>67.14558386063671</v>
       </c>
       <c r="D4" t="n">
         <v>81.37067654131214</v>
       </c>
       <c r="E4" t="n">
-        <v>137.800118072334</v>
+        <v>182.2589384760896</v>
       </c>
       <c r="F4" t="n">
-        <v>137.800118072334</v>
+        <v>182.2589384760896</v>
       </c>
       <c r="G4" t="n">
-        <v>225.1452198420024</v>
+        <v>182.2589384760896</v>
       </c>
       <c r="H4" t="n">
-        <v>225.1452198420024</v>
+        <v>182.2589384760896</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469141</v>
@@ -26478,16 +26478,16 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161357</v>
+        <v>28584.23211703034</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>28584.23211703034</v>
       </c>
       <c r="G5" t="n">
-        <v>33511.0570549495</v>
+        <v>28584.23211703034</v>
       </c>
       <c r="H5" t="n">
-        <v>33511.0570549495</v>
+        <v>28584.23211703034</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587229</v>
@@ -26496,16 +26496,16 @@
         <v>51571.48185587229</v>
       </c>
       <c r="K5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="L5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="M5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="N5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="O5" t="n">
         <v>51571.48185587229</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331764.4455588156</v>
+        <v>-346359.9606441642</v>
       </c>
       <c r="C6" t="n">
-        <v>11538.23954156152</v>
+        <v>-2145.981629436683</v>
       </c>
       <c r="D6" t="n">
-        <v>63194.51070188507</v>
+        <v>49826.61804400958</v>
       </c>
       <c r="E6" t="n">
-        <v>54165.44778490465</v>
+        <v>-11357.27849479867</v>
       </c>
       <c r="F6" t="n">
-        <v>134811.6617941906</v>
+        <v>134324.9755714471</v>
       </c>
       <c r="G6" t="n">
-        <v>35523.37761089164</v>
+        <v>134324.9755714472</v>
       </c>
       <c r="H6" t="n">
-        <v>155899.8408876552</v>
+        <v>134324.9755714472</v>
       </c>
       <c r="I6" t="n">
-        <v>-14060.20668086759</v>
+        <v>-78263.91154515074</v>
       </c>
       <c r="J6" t="n">
-        <v>180356.2498787145</v>
+        <v>172742.8697625517</v>
       </c>
       <c r="K6" t="n">
-        <v>182351.4633972389</v>
+        <v>174738.0832810759</v>
       </c>
       <c r="L6" t="n">
-        <v>188462.7741141708</v>
+        <v>180849.3939980078</v>
       </c>
       <c r="M6" t="n">
-        <v>174591.6116268956</v>
+        <v>150610.0979777996</v>
       </c>
       <c r="N6" t="n">
-        <v>193384.8146973196</v>
+        <v>185771.4345811566</v>
       </c>
       <c r="O6" t="n">
-        <v>162677.0619563118</v>
+        <v>185771.4345811566</v>
       </c>
       <c r="P6" t="n">
-        <v>193384.8146973196</v>
+        <v>185771.4345811566</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>605.01060608151</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129046</v>
+        <v>605.01060608151</v>
       </c>
       <c r="G3" t="n">
-        <v>658.3141401703845</v>
+        <v>605.01060608151</v>
       </c>
       <c r="H3" t="n">
-        <v>658.3141401703845</v>
+        <v>605.01060608151</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376848</v>
@@ -26798,34 +26798,34 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663199</v>
+        <v>253.207251717984</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663199</v>
+        <v>253.207251717984</v>
       </c>
       <c r="G4" t="n">
-        <v>315.128434197946</v>
+        <v>253.207251717984</v>
       </c>
       <c r="H4" t="n">
-        <v>315.128434197946</v>
+        <v>253.2072517179839</v>
       </c>
       <c r="I4" t="n">
+        <v>542.1149567261639</v>
+      </c>
+      <c r="J4" t="n">
         <v>542.1149567261638</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>542.1149567261639</v>
       </c>
-      <c r="K4" t="n">
-        <v>542.1149567261641</v>
-      </c>
       <c r="L4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="N4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="O4" t="n">
         <v>542.1149567261639</v>
@@ -26968,19 +26968,19 @@
         <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>72.35418971440237</v>
+        <v>128.8948548830078</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109.8441992574799</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.3965243673003</v>
+        <v>248.7000584561748</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>19.44771083582151</v>
       </c>
       <c r="E4" t="n">
-        <v>75.41292704139616</v>
+        <v>141.0945915930603</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>127.6028470316262</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>226.9865225282177</v>
+        <v>288.90770500818</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712471</v>
+        <v>49.79500702712448</v>
       </c>
       <c r="K4" t="n">
-        <v>42.8699422619778</v>
+        <v>42.86994226197768</v>
       </c>
       <c r="L4" t="n">
         <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139616</v>
+        <v>141.0945915930603</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>127.6028470316259</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139616</v>
+        <v>141.0945915930603</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>127.6028470316262</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31138,10 +31138,10 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N3" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
         <v>192.3912514715691</v>
@@ -31369,7 +31369,7 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K6" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>213.7080965605662</v>
@@ -31378,10 +31378,10 @@
         <v>234.7989832111205</v>
       </c>
       <c r="N6" t="n">
-        <v>163.7876250036813</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O6" t="n">
-        <v>234.1788327264121</v>
+        <v>195.0536364676412</v>
       </c>
       <c r="P6" t="n">
         <v>187.9491588335306</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>2.432203441533707</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>24.90880349560708</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>93.76752317972831</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>206.4302268458716</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>309.3853985259935</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>383.8199445998308</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>427.0736425532058</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>433.9841405814635</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>409.7989176097126</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>349.7538951468492</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>262.6506093969232</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>152.7818994342418</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>55.4238359239494</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1945762753226965</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>1.301343567797965</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>44.80503073339485</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>210.1384479632354</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>282.5570759817468</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>329.7307803144229</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>338.4577729247874</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>309.6227391330535</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>248.4995449771395</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>166.1153648999648</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>80.79745414801754</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>24.17188600712446</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>5.245327801782146</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08561470840776088</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>9.700006110618313</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>32.80942762160058</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>77.13389317206398</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>126.7546810774048</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>162.2023516697871</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>171.0196373879258</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>166.9531726585256</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>154.2082771041856</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>91.35660151830801</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>49.05545012588766</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>19.01320216161072</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>4.661557128824747</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05950923994244367</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>2.432203441533707</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954485</v>
+        <v>24.90880349560708</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043118</v>
+        <v>93.76752317972831</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>206.4302268458716</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>309.3853985259935</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>383.8199445998308</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>427.0736425532058</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470024</v>
+        <v>433.9841405814635</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>409.7989176097126</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>349.7538951468492</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>262.6506093969232</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>152.7818994342418</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>55.4238359239494</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924579</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1945762753226965</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>1.301343567797965</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>44.80503073339485</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>210.1384479632354</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>282.5570759817468</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>329.7307803144229</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829654</v>
+        <v>338.4577729247874</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>309.6227391330535</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>248.4995449771395</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>166.1153648999648</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550075</v>
+        <v>80.79745414801754</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>24.17188600712446</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820369</v>
+        <v>5.245327801782146</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08561470840776088</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620016</v>
+        <v>9.700006110618313</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>32.80942762160058</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114193</v>
+        <v>77.13389317206398</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>126.7546810774048</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>162.2023516697871</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>171.0196373879258</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>166.9531726585256</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>154.2082771041856</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784858</v>
+        <v>91.35660151830801</v>
       </c>
       <c r="R16" t="n">
-        <v>44.4710217664791</v>
+        <v>49.05545012588766</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>19.01320216161072</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>4.661557128824747</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05950923994244367</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.646489005710086</v>
+        <v>2.432203441533707</v>
       </c>
       <c r="H17" t="n">
-        <v>27.10335552972843</v>
+        <v>24.90880349560708</v>
       </c>
       <c r="I17" t="n">
-        <v>102.0287673926382</v>
+        <v>93.76752317972831</v>
       </c>
       <c r="J17" t="n">
-        <v>224.6174462483866</v>
+        <v>206.4302268458716</v>
       </c>
       <c r="K17" t="n">
-        <v>336.6433258600946</v>
+        <v>309.3853985259935</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6358137685948</v>
+        <v>383.8199445998308</v>
       </c>
       <c r="M17" t="n">
-        <v>464.7003126238915</v>
+        <v>427.0736425532058</v>
       </c>
       <c r="N17" t="n">
-        <v>472.2196495113653</v>
+        <v>433.9841405814635</v>
       </c>
       <c r="O17" t="n">
-        <v>445.9036244608357</v>
+        <v>409.7989176097126</v>
       </c>
       <c r="P17" t="n">
-        <v>380.5684271323678</v>
+        <v>349.7538951468492</v>
       </c>
       <c r="Q17" t="n">
-        <v>285.7910396153753</v>
+        <v>262.6506093969232</v>
       </c>
       <c r="R17" t="n">
-        <v>166.2425150049364</v>
+        <v>152.7818994342418</v>
       </c>
       <c r="S17" t="n">
-        <v>60.30686821761865</v>
+        <v>55.4238359239494</v>
       </c>
       <c r="T17" t="n">
-        <v>11.58500562249591</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2117191204568069</v>
+        <v>0.1945762753226965</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.415996452441959</v>
+        <v>1.301343567797965</v>
       </c>
       <c r="H18" t="n">
-        <v>13.67554468542629</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I18" t="n">
-        <v>48.7525094371464</v>
+        <v>44.80503073339485</v>
       </c>
       <c r="J18" t="n">
-        <v>133.7806122019835</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K18" t="n">
-        <v>228.6523745155948</v>
+        <v>210.1384479632354</v>
       </c>
       <c r="L18" t="n">
-        <v>307.4513349918386</v>
+        <v>282.5570759817468</v>
       </c>
       <c r="M18" t="n">
-        <v>358.7812063928595</v>
+        <v>329.7307803144229</v>
       </c>
       <c r="N18" t="n">
-        <v>368.2770773392795</v>
+        <v>338.4577729247874</v>
       </c>
       <c r="O18" t="n">
-        <v>336.9015769983287</v>
+        <v>309.6227391330535</v>
       </c>
       <c r="P18" t="n">
-        <v>270.393217308851</v>
+        <v>248.4995449771395</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.7507050520648</v>
+        <v>166.1153648999648</v>
       </c>
       <c r="R18" t="n">
-        <v>87.91599026652798</v>
+        <v>80.79745414801754</v>
       </c>
       <c r="S18" t="n">
-        <v>26.30151305303374</v>
+        <v>24.17188600712446</v>
       </c>
       <c r="T18" t="n">
-        <v>5.707459385062105</v>
+        <v>5.245327801782146</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09315766134486576</v>
+        <v>0.08561470840776088</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.187123859323644</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H19" t="n">
-        <v>10.55461031289568</v>
+        <v>9.700006110618313</v>
       </c>
       <c r="I19" t="n">
-        <v>35.70005206038741</v>
+        <v>32.80942762160058</v>
       </c>
       <c r="J19" t="n">
-        <v>83.92965685418163</v>
+        <v>77.13389317206398</v>
       </c>
       <c r="K19" t="n">
-        <v>137.9222083832379</v>
+        <v>126.7546810774048</v>
       </c>
       <c r="L19" t="n">
-        <v>176.4929417761716</v>
+        <v>162.2023516697871</v>
       </c>
       <c r="M19" t="n">
-        <v>186.0870609665236</v>
+        <v>171.0196373879258</v>
       </c>
       <c r="N19" t="n">
-        <v>181.6623265817719</v>
+        <v>166.9531726585256</v>
       </c>
       <c r="O19" t="n">
-        <v>167.7945614978548</v>
+        <v>154.2082771041856</v>
       </c>
       <c r="P19" t="n">
-        <v>143.5772347676523</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.40543516572805</v>
+        <v>91.35660151830801</v>
       </c>
       <c r="R19" t="n">
-        <v>53.37740552922492</v>
+        <v>49.05545012588766</v>
       </c>
       <c r="S19" t="n">
-        <v>20.68833125748568</v>
+        <v>19.01320216161072</v>
       </c>
       <c r="T19" t="n">
-        <v>5.072256489837387</v>
+        <v>4.661557128824747</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06475221050856247</v>
+        <v>0.05950923994244367</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.646489005710086</v>
+        <v>2.432203441533707</v>
       </c>
       <c r="H20" t="n">
-        <v>27.10335552972843</v>
+        <v>24.90880349560708</v>
       </c>
       <c r="I20" t="n">
-        <v>102.0287673926382</v>
+        <v>93.76752317972831</v>
       </c>
       <c r="J20" t="n">
-        <v>224.6174462483866</v>
+        <v>206.4302268458716</v>
       </c>
       <c r="K20" t="n">
-        <v>336.6433258600946</v>
+        <v>309.3853985259935</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6358137685948</v>
+        <v>383.8199445998308</v>
       </c>
       <c r="M20" t="n">
-        <v>464.7003126238915</v>
+        <v>427.0736425532058</v>
       </c>
       <c r="N20" t="n">
-        <v>472.2196495113653</v>
+        <v>433.9841405814635</v>
       </c>
       <c r="O20" t="n">
-        <v>445.9036244608357</v>
+        <v>409.7989176097126</v>
       </c>
       <c r="P20" t="n">
-        <v>380.5684271323678</v>
+        <v>349.7538951468492</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.7910396153753</v>
+        <v>262.6506093969232</v>
       </c>
       <c r="R20" t="n">
-        <v>166.2425150049364</v>
+        <v>152.7818994342418</v>
       </c>
       <c r="S20" t="n">
-        <v>60.30686821761865</v>
+        <v>55.4238359239494</v>
       </c>
       <c r="T20" t="n">
-        <v>11.58500562249591</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2117191204568069</v>
+        <v>0.1945762753226965</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.415996452441959</v>
+        <v>1.301343567797965</v>
       </c>
       <c r="H21" t="n">
-        <v>13.67554468542629</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I21" t="n">
-        <v>48.7525094371464</v>
+        <v>44.80503073339485</v>
       </c>
       <c r="J21" t="n">
-        <v>133.7806122019835</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K21" t="n">
-        <v>228.6523745155948</v>
+        <v>210.1384479632354</v>
       </c>
       <c r="L21" t="n">
-        <v>307.4513349918386</v>
+        <v>282.5570759817468</v>
       </c>
       <c r="M21" t="n">
-        <v>358.7812063928595</v>
+        <v>329.7307803144229</v>
       </c>
       <c r="N21" t="n">
-        <v>368.2770773392795</v>
+        <v>338.4577729247874</v>
       </c>
       <c r="O21" t="n">
-        <v>336.9015769983287</v>
+        <v>309.6227391330535</v>
       </c>
       <c r="P21" t="n">
-        <v>270.393217308851</v>
+        <v>248.4995449771395</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.7507050520648</v>
+        <v>166.1153648999648</v>
       </c>
       <c r="R21" t="n">
-        <v>87.91599026652798</v>
+        <v>80.79745414801754</v>
       </c>
       <c r="S21" t="n">
-        <v>26.30151305303374</v>
+        <v>24.17188600712446</v>
       </c>
       <c r="T21" t="n">
-        <v>5.707459385062105</v>
+        <v>5.245327801782146</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09315766134486576</v>
+        <v>0.08561470840776088</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.187123859323644</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H22" t="n">
-        <v>10.55461031289568</v>
+        <v>9.700006110618313</v>
       </c>
       <c r="I22" t="n">
-        <v>35.70005206038741</v>
+        <v>32.80942762160058</v>
       </c>
       <c r="J22" t="n">
-        <v>83.92965685418163</v>
+        <v>77.13389317206398</v>
       </c>
       <c r="K22" t="n">
-        <v>137.9222083832379</v>
+        <v>126.7546810774048</v>
       </c>
       <c r="L22" t="n">
-        <v>176.4929417761716</v>
+        <v>162.2023516697871</v>
       </c>
       <c r="M22" t="n">
-        <v>186.0870609665236</v>
+        <v>171.0196373879258</v>
       </c>
       <c r="N22" t="n">
-        <v>181.6623265817719</v>
+        <v>166.9531726585256</v>
       </c>
       <c r="O22" t="n">
-        <v>167.7945614978548</v>
+        <v>154.2082771041856</v>
       </c>
       <c r="P22" t="n">
-        <v>143.5772347676523</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.40543516572805</v>
+        <v>91.35660151830801</v>
       </c>
       <c r="R22" t="n">
-        <v>53.37740552922492</v>
+        <v>49.05545012588766</v>
       </c>
       <c r="S22" t="n">
-        <v>20.68833125748568</v>
+        <v>19.01320216161072</v>
       </c>
       <c r="T22" t="n">
-        <v>5.072256489837387</v>
+        <v>4.661557128824747</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06475221050856247</v>
+        <v>0.05950923994244367</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>291.286936740926</v>
       </c>
       <c r="K44" t="n">
-        <v>436.563609825871</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L44" t="n">
         <v>541.5957615840431</v>
@@ -34389,7 +34389,7 @@
         <v>493.5262741662302</v>
       </c>
       <c r="Q44" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R44" t="n">
         <v>215.5855378141321</v>
@@ -34786,10 +34786,10 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
+        <v>21.75745062690899</v>
+      </c>
+      <c r="N3" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21.75745062690899</v>
       </c>
       <c r="O3" t="n">
         <v>49.79500702712463</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>75.15371678069201</v>
@@ -35026,10 +35026,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="N6" t="n">
-        <v>32.44591292034803</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O6" t="n">
-        <v>91.5825882819677</v>
+        <v>52.45739202319677</v>
       </c>
       <c r="P6" t="n">
         <v>53.97475141920032</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>25.38432231918534</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>89.29554748101293</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>148.0535296298435</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>196.7274093259331</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>204.5710769848725</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>179.7007061880259</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>118.5208993915796</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>40.34491952247376</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>72.29700898887643</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>144.0026962018726</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>187.5967463924046</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>207.1160608414541</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>167.0264946886091</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>114.5251375628092</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>26.13359081394327</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646077</v>
+        <v>27.31767538854885</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061152</v>
+        <v>32.09385344032074</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520826</v>
+        <v>39.26762819329244</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400524</v>
+        <v>15.75173865234279</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868052</v>
+        <v>25.38432231918534</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788333</v>
+        <v>89.29554748101293</v>
       </c>
       <c r="L14" t="n">
-        <v>112.184017997302</v>
+        <v>148.0535296298435</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197546</v>
+        <v>196.7274093259331</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504115</v>
+        <v>204.5710769848725</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405812</v>
+        <v>179.7007061880259</v>
       </c>
       <c r="P14" t="n">
-        <v>85.8349965691599</v>
+        <v>118.5208993915796</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065975</v>
+        <v>40.34491952247376</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781469</v>
+        <v>72.29700898887643</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>144.0026962018726</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>187.5967463924046</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>207.1160608414541</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848229</v>
+        <v>167.0264946886091</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855694</v>
+        <v>114.5251375628092</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764996</v>
+        <v>26.13359081394327</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646077</v>
+        <v>27.31767538854885</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061152</v>
+        <v>32.09385344032074</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>39.26762819329244</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400524</v>
+        <v>15.75173865234279</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.57154172170036</v>
+        <v>25.38432231918534</v>
       </c>
       <c r="K17" t="n">
-        <v>116.5534748151141</v>
+        <v>89.29554748101293</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8693987986076</v>
+        <v>148.0535296298435</v>
       </c>
       <c r="M17" t="n">
-        <v>234.3540793966188</v>
+        <v>196.7274093259331</v>
       </c>
       <c r="N17" t="n">
-        <v>242.8065859147744</v>
+        <v>204.5710769848725</v>
       </c>
       <c r="O17" t="n">
-        <v>215.8054130391489</v>
+        <v>179.7007061880259</v>
       </c>
       <c r="P17" t="n">
-        <v>149.3354313770983</v>
+        <v>118.5208993915796</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.48534974092578</v>
+        <v>40.34491952247376</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.942985535316836</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>90.81093554123578</v>
+        <v>72.29700898887643</v>
       </c>
       <c r="L18" t="n">
-        <v>168.8969552119644</v>
+        <v>144.0026962018726</v>
       </c>
       <c r="M18" t="n">
-        <v>216.6471724708412</v>
+        <v>187.5967463924046</v>
       </c>
       <c r="N18" t="n">
-        <v>236.9353652559462</v>
+        <v>207.1160608414541</v>
       </c>
       <c r="O18" t="n">
-        <v>194.3053325538843</v>
+        <v>167.0264946886091</v>
       </c>
       <c r="P18" t="n">
-        <v>136.4188098945207</v>
+        <v>114.5251375628092</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.76893096604331</v>
+        <v>26.13359081394327</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.908950212702507</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>41.60826549493333</v>
+        <v>27.31767538854885</v>
       </c>
       <c r="M19" t="n">
-        <v>47.1612770189185</v>
+        <v>32.09385344032074</v>
       </c>
       <c r="N19" t="n">
-        <v>53.97678211653874</v>
+        <v>39.26762819329244</v>
       </c>
       <c r="O19" t="n">
-        <v>29.33802304601198</v>
+        <v>15.75173865234279</v>
       </c>
       <c r="P19" t="n">
-        <v>5.849230718504685</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.57154172170036</v>
+        <v>25.38432231918534</v>
       </c>
       <c r="K20" t="n">
-        <v>116.5534748151141</v>
+        <v>89.29554748101293</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8693987986076</v>
+        <v>148.0535296298435</v>
       </c>
       <c r="M20" t="n">
-        <v>234.3540793966188</v>
+        <v>196.7274093259331</v>
       </c>
       <c r="N20" t="n">
-        <v>242.8065859147744</v>
+        <v>204.5710769848725</v>
       </c>
       <c r="O20" t="n">
-        <v>215.8054130391489</v>
+        <v>179.7007061880259</v>
       </c>
       <c r="P20" t="n">
-        <v>149.3354313770983</v>
+        <v>118.5208993915796</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.48534974092578</v>
+        <v>40.34491952247376</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.942985535316836</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>90.81093554123578</v>
+        <v>72.29700898887643</v>
       </c>
       <c r="L21" t="n">
-        <v>168.8969552119644</v>
+        <v>144.0026962018726</v>
       </c>
       <c r="M21" t="n">
-        <v>216.6471724708412</v>
+        <v>187.5967463924046</v>
       </c>
       <c r="N21" t="n">
-        <v>236.9353652559462</v>
+        <v>207.1160608414541</v>
       </c>
       <c r="O21" t="n">
-        <v>194.3053325538843</v>
+        <v>167.0264946886091</v>
       </c>
       <c r="P21" t="n">
-        <v>136.4188098945207</v>
+        <v>114.5251375628092</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.76893096604331</v>
+        <v>26.13359081394327</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.908950212702507</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>41.60826549493333</v>
+        <v>27.31767538854885</v>
       </c>
       <c r="M22" t="n">
-        <v>47.1612770189185</v>
+        <v>32.09385344032074</v>
       </c>
       <c r="N22" t="n">
-        <v>53.97678211653874</v>
+        <v>39.26762819329244</v>
       </c>
       <c r="O22" t="n">
-        <v>29.33802304601198</v>
+        <v>15.75173865234279</v>
       </c>
       <c r="P22" t="n">
-        <v>5.849230718504685</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>110.2410322142397</v>
       </c>
       <c r="K44" t="n">
-        <v>216.4737587808904</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L44" t="n">
         <v>305.8293466140559</v>
@@ -38037,7 +38037,7 @@
         <v>262.2932784109606</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
